--- a/UFT AI Web DDT/Default.xlsx
+++ b/UFT AI Web DDT/Default.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>Browser</t>
   </si>
@@ -29,16 +29,10 @@
     <t>device_model</t>
   </si>
   <si>
-    <t>IE</t>
-  </si>
-  <si>
     <t>FIREFOX64</t>
   </si>
   <si>
     <t>device_ostype</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
@@ -526,65 +520,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="9.41796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.83984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.95703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.83984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.95703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" customFormat="1">
+    <row r="1" customFormat="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
       </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
+      <c r="D3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
